--- a/forms/app/daily_symptoms_check.xlsx
+++ b/forms/app/daily_symptoms_check.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="1335" windowWidth="25605" windowHeight="17475" tabRatio="500"/>
+    <workbookView xWindow="6105" yWindow="1335" windowWidth="25605" windowHeight="17475" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1048569"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -4614,7 +4614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-21 15-49</v>
+        <v>2020-12-31 12-29</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>91</v>
